--- a/result/NCDC_weather_data/stations_imputed/47031299999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/47031299999.xlsx
@@ -565,7 +565,9 @@
       <c r="M2" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O2" t="n">
         <v>125.24</v>
       </c>
@@ -617,7 +619,9 @@
       <c r="M3" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O3" t="n">
         <v>96.08</v>
       </c>
@@ -669,7 +673,9 @@
       <c r="M4" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O4" t="n">
         <v>105.8</v>
       </c>
@@ -721,7 +727,9 @@
       <c r="M5" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O5" t="n">
         <v>102.56</v>
       </c>
@@ -773,7 +781,9 @@
       <c r="M6" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O6" t="n">
         <v>99.31999999999999</v>
       </c>
@@ -825,7 +835,9 @@
       <c r="M7" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O7" t="n">
         <v>102.56</v>
       </c>
@@ -877,7 +889,9 @@
       <c r="M8" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O8" t="n">
         <v>102.56</v>
       </c>
@@ -929,7 +943,9 @@
       <c r="M9" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O9" t="n">
         <v>122</v>
       </c>
@@ -981,7 +997,9 @@
       <c r="M10" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O10" t="n">
         <v>102.56</v>
       </c>
@@ -1033,7 +1051,9 @@
       <c r="M11" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O11" t="n">
         <v>102.56</v>
       </c>
@@ -1085,7 +1105,9 @@
       <c r="M12" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O12" t="n">
         <v>99.31999999999999</v>
       </c>
@@ -1137,7 +1159,9 @@
       <c r="M13" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O13" t="n">
         <v>96.08</v>
       </c>
@@ -1189,7 +1213,9 @@
       <c r="M14" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O14" t="n">
         <v>105.8</v>
       </c>
@@ -1241,7 +1267,9 @@
       <c r="M15" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O15" t="n">
         <v>99.31999999999999</v>
       </c>
@@ -1293,7 +1321,9 @@
       <c r="M16" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O16" t="n">
         <v>112.28</v>
       </c>
@@ -1345,7 +1375,9 @@
       <c r="M17" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O17" t="n">
         <v>99.31999999999999</v>
       </c>
@@ -1397,7 +1429,9 @@
       <c r="M18" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O18" t="n">
         <v>109.04</v>
       </c>
@@ -1449,7 +1483,9 @@
       <c r="M19" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O19" t="n">
         <v>105.8</v>
       </c>
@@ -1501,7 +1537,9 @@
       <c r="M20" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O20" t="n">
         <v>83.12</v>
       </c>
@@ -1553,7 +1591,9 @@
       <c r="M21" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O21" t="n">
         <v>83.12</v>
       </c>
@@ -1605,7 +1645,9 @@
       <c r="M22" t="n">
         <v>0.977436</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O22" t="n">
         <v>86.36</v>
       </c>
@@ -1657,7 +1699,9 @@
       <c r="M23" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O23" t="n">
         <v>83.12</v>
       </c>
@@ -1709,7 +1753,9 @@
       <c r="M24" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O24" t="n">
         <v>86.36</v>
       </c>
@@ -1761,7 +1807,9 @@
       <c r="M25" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O25" t="n">
         <v>89.59999999999999</v>
       </c>
@@ -1813,7 +1861,9 @@
       <c r="M26" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O26" t="n">
         <v>99.31999999999999</v>
       </c>
@@ -1865,7 +1915,9 @@
       <c r="M27" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O27" t="n">
         <v>92.84</v>
       </c>
@@ -1917,7 +1969,9 @@
       <c r="M28" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O28" t="n">
         <v>99.31999999999999</v>
       </c>
@@ -1969,7 +2023,9 @@
       <c r="M29" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O29" t="n">
         <v>92.84</v>
       </c>
@@ -2021,7 +2077,9 @@
       <c r="M30" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O30" t="n">
         <v>102.56</v>
       </c>
@@ -2073,7 +2131,9 @@
       <c r="M31" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>12.32230782857143</v>
+      </c>
       <c r="O31" t="n">
         <v>105.8</v>
       </c>
